--- a/David/Graph_data.xlsx
+++ b/David/Graph_data.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="19360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -189,7 +189,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.070246062992126"/>
+          <c:y val="0.0626506024096385"/>
+          <c:w val="0.671775213603619"/>
+          <c:h val="0.795919931695285"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -393,21 +403,47 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2120552040"/>
-        <c:axId val="2120554888"/>
+        <c:axId val="-2094363240"/>
+        <c:axId val="-2094347032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2120552040"/>
+        <c:axId val="-2094363240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Alpha value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.762857471938348"/>
+              <c:y val="0.851294564083104"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120554888"/>
+        <c:crossAx val="-2094347032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -415,7 +451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120554888"/>
+        <c:axId val="-2094347032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -426,14 +462,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120552040"/>
+        <c:crossAx val="-2094363240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74468085106383"/>
+          <c:y val="0.398395598140594"/>
+          <c:w val="0.252659574468085"/>
+          <c:h val="0.193570249501945"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -458,10 +503,10 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1240,47 +1285,47 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f>SUM(B2:B11)</f>
+        <f t="shared" ref="B12:L12" si="0">SUM(B2:B11)</f>
         <v>2768</v>
       </c>
       <c r="C12">
-        <f>SUM(C2:C11)</f>
+        <f t="shared" si="0"/>
         <v>2775</v>
       </c>
       <c r="D12">
-        <f>SUM(D2:D11)</f>
+        <f t="shared" si="0"/>
         <v>2775</v>
       </c>
       <c r="E12">
-        <f>SUM(E2:E11)</f>
+        <f t="shared" si="0"/>
         <v>2790</v>
       </c>
       <c r="F12">
-        <f>SUM(F2:F11)</f>
+        <f t="shared" si="0"/>
         <v>2803</v>
       </c>
       <c r="G12">
-        <f>SUM(G2:G11)</f>
+        <f t="shared" si="0"/>
         <v>2810</v>
       </c>
       <c r="H12">
-        <f>SUM(H2:H11)</f>
+        <f t="shared" si="0"/>
         <v>2808</v>
       </c>
       <c r="I12">
-        <f>SUM(I2:I11)</f>
+        <f t="shared" si="0"/>
         <v>2817</v>
       </c>
       <c r="J12">
-        <f>SUM(J2:J11)</f>
+        <f t="shared" si="0"/>
         <v>2824</v>
       </c>
       <c r="K12">
-        <f>SUM(K2:K11)</f>
+        <f t="shared" si="0"/>
         <v>2852</v>
       </c>
       <c r="L12">
-        <f>SUM(L2:L11)</f>
+        <f t="shared" si="0"/>
         <v>2908</v>
       </c>
     </row>
@@ -1293,43 +1338,43 @@
         <v>1.8000000000000114</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:L13" si="0">C12/10-275</f>
+        <f t="shared" ref="C13:L13" si="1">C12/10-275</f>
         <v>2.5</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3000000000000114</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8000000000000114</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6999999999999886</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3999999999999773</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.199999999999989</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.800000000000011</v>
       </c>
     </row>
@@ -1384,7 +1429,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
